--- a/similarities/split_global/harmonic_similarity_timestamps_179.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_179.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,344 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['Bb', 'C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:00:00.370000', '0:00:02.670000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:01:07.840000', '0:01:16.200000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=0.37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=67.84</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.080000', '0:00:19.060000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:24.500000', '0:00:33.620000')]</t>
+          <t>('0:00:43.060000', '0:01:03.280000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:00.220000', '0:00:08.880000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=24.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=43.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.420000', '0:00:27.640000')]</t>
+          <t>('0:00:02.600000', '0:00:05.120000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.800000', '0:01:04.680000')]</t>
+          <t>('0:00:47.760000', '0:00:59.620000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=7.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=55.8']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=47.76</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj', 'F:min'], ['F:min', 'C:maj', 'F:min', 'G:maj/B']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C', 'F:min'], ['F:min', 'C', 'F:min', 'G']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.960000'), ('0:00:13.600000', '0:00:18.180000')]</t>
+          <t>('0:00:09.260000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:05.350000', '0:04:09.930000'), ('0:00:03.400000', '0:00:09.080000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=12.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=13.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=245.35', 'https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=3.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -815,371 +829,389 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:35', '0:00:39.820000')]</t>
+          <t>('0:01:02.200000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:45.840000', '0:02:00.500000')]</t>
+          <t>('0:00:06.260000', '0:00:17.160000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=35.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:7', 'D', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
+          <t>['A:7', 'D:maj/A', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.840000', '0:00:16.860000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:20.648911', '0:00:30.830861')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:26.115071', '0:00:38.793167'), ('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:03.100000', '0:00:13.500000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=8.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=20.648911</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=26.115071', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=3.1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:23.629455', '0:00:29.120975')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:53.960000', '0:01:00.180000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=53.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000')]</t>
+          <t>('0:00:19.000294', '0:00:29.309954')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['F', 'C/3', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:01:16.132993', '0:01:17.561020')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.132993</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A:min7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:min7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:18.010000', '0:00:21.490000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:13.420000', '0:00:21.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=18.01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=13.42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj7']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.330000', '0:00:03.530000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:46.710000', '0:01:52.340000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=1.33']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=106.71']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
